--- a/Documents/Week6/06_Team3PMWeeklyStatusReport[REQUIRED]ExecutionReport.xlsx
+++ b/Documents/Week6/06_Team3PMWeeklyStatusReport[REQUIRED]ExecutionReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VisualStudioRepos\Documents\Week5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VisualStudioRepos\Documents\Week6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4653C74-F9ED-4C75-8AE5-721A7A5F45AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D3E50F-4F39-41DE-BDE1-B655DCA85682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="3" r:id="rId1"/>
@@ -292,7 +292,7 @@
     <t>Work Request</t>
   </si>
   <si>
-    <t>Week 5</t>
+    <t>Week 6</t>
   </si>
 </sst>
 </file>
@@ -1470,7 +1470,7 @@
                   <c:v>45000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>50625</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1581,10 +1581,10 @@
                   <c:v>35000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35000</c:v>
+                  <c:v>42500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35000</c:v>
+                  <c:v>42500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2326,19 +2326,19 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" customWidth="1"/>
-    <col min="4" max="15" width="8.6640625" customWidth="1"/>
-    <col min="17" max="17" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="15" width="8.7109375" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>70</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
@@ -2362,7 +2362,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2374,7 +2374,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="10" t="s">
         <v>4</v>
@@ -2390,20 +2390,20 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="69">
-        <v>20211123</v>
+        <v>20211130</v>
       </c>
       <c r="D5" s="69"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
@@ -2414,7 +2414,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="10" t="s">
         <v>33</v>
@@ -2427,7 +2427,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="6"/>
@@ -2436,7 +2436,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>35</v>
       </c>
@@ -2447,7 +2447,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="71" t="s">
         <v>34</v>
@@ -2458,7 +2458,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="71"/>
       <c r="C11" s="71"/>
@@ -2467,7 +2467,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="71"/>
       <c r="C12" s="71"/>
@@ -2476,7 +2476,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="71"/>
       <c r="C13" s="71"/>
@@ -2485,7 +2485,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="71"/>
       <c r="C14" s="71"/>
@@ -2494,7 +2494,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="71"/>
       <c r="C15" s="71"/>
@@ -2503,7 +2503,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="71"/>
       <c r="C16" s="71"/>
@@ -2512,7 +2512,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="71"/>
       <c r="C17" s="71"/>
@@ -2521,7 +2521,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="71"/>
       <c r="C18" s="71"/>
@@ -2530,7 +2530,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="6"/>
@@ -2539,7 +2539,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -2549,7 +2549,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="60" t="s">
         <v>2</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="33">
         <v>1</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="33">
         <v>2</v>
       </c>
@@ -2654,7 +2654,7 @@
       <c r="O23" s="31"/>
       <c r="P23" s="25"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="33">
         <v>3</v>
       </c>
@@ -2680,7 +2680,7 @@
       <c r="O24" s="31"/>
       <c r="P24" s="25"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="33">
         <v>4</v>
       </c>
@@ -2706,7 +2706,7 @@
       <c r="O25" s="31"/>
       <c r="P25" s="25"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="33">
         <v>5</v>
       </c>
@@ -2732,7 +2732,7 @@
       <c r="O26" s="31"/>
       <c r="P26" s="25"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="33">
         <v>6</v>
       </c>
@@ -2747,7 +2747,9 @@
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
       <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
+      <c r="I27" s="31">
+        <v>7500</v>
+      </c>
       <c r="J27" s="31"/>
       <c r="K27" s="31"/>
       <c r="L27" s="31"/>
@@ -2756,7 +2758,7 @@
       <c r="O27" s="31"/>
       <c r="P27" s="25"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="33">
         <v>7</v>
       </c>
@@ -2772,7 +2774,9 @@
       <c r="G28" s="31"/>
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
+      <c r="J28" s="31">
+        <v>7500</v>
+      </c>
       <c r="K28" s="31"/>
       <c r="L28" s="31"/>
       <c r="M28" s="31"/>
@@ -2780,7 +2784,7 @@
       <c r="O28" s="31"/>
       <c r="P28" s="25"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="33">
         <v>8</v>
       </c>
@@ -2797,14 +2801,16 @@
       <c r="H29" s="31"/>
       <c r="I29" s="31"/>
       <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
+      <c r="K29" s="31">
+        <v>7500</v>
+      </c>
       <c r="L29" s="31"/>
       <c r="M29" s="31"/>
       <c r="N29" s="31"/>
       <c r="O29" s="31"/>
       <c r="P29" s="25"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="32"/>
       <c r="B30" s="31"/>
       <c r="C30" s="24">
@@ -2825,7 +2831,7 @@
       <c r="O30" s="31"/>
       <c r="P30" s="25"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="32"/>
       <c r="B31" s="31"/>
       <c r="C31" s="24">
@@ -2846,7 +2852,7 @@
       <c r="O31" s="31"/>
       <c r="P31" s="25"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="32"/>
       <c r="B32" s="31"/>
       <c r="C32" s="24">
@@ -2867,7 +2873,7 @@
       <c r="O32" s="31"/>
       <c r="P32" s="25"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="32"/>
       <c r="B33" s="31"/>
       <c r="C33" s="24">
@@ -2888,7 +2894,7 @@
       <c r="O33" s="31"/>
       <c r="P33" s="25"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
         <v>28</v>
       </c>
@@ -2911,7 +2917,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="25"/>
       <c r="B35" s="27" t="s">
         <v>44</v>
@@ -2937,15 +2943,19 @@
         <v>7500</v>
       </c>
       <c r="H35" s="28">
+        <f t="shared" si="1"/>
         <v>7500</v>
       </c>
       <c r="I35" s="28">
+        <f t="shared" si="1"/>
         <v>7500</v>
       </c>
       <c r="J35" s="28">
+        <f t="shared" si="1"/>
         <v>7500</v>
       </c>
       <c r="K35" s="28">
+        <f t="shared" si="1"/>
         <v>7500</v>
       </c>
       <c r="L35" s="28">
@@ -2966,7 +2976,7 @@
       </c>
       <c r="P35" s="25"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="25"/>
       <c r="B36" s="27"/>
       <c r="C36" s="29" t="s">
@@ -3009,7 +3019,7 @@
       <c r="O36" s="30"/>
       <c r="P36" s="25"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="25"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -3027,12 +3037,12 @@
       <c r="O37" s="25"/>
       <c r="P37" s="25"/>
     </row>
-    <row r="38" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="25"/>
       <c r="B39" s="25"/>
       <c r="C39" s="29" t="s">
@@ -3059,11 +3069,11 @@
       </c>
       <c r="I39" s="31">
         <f>AC!I24</f>
-        <v>35000</v>
+        <v>42500</v>
       </c>
       <c r="J39" s="31">
         <f>AC!J24</f>
-        <v>35000</v>
+        <v>42500</v>
       </c>
       <c r="K39" s="31"/>
       <c r="L39" s="31"/>
@@ -3075,7 +3085,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="25"/>
       <c r="B40" s="25"/>
       <c r="C40" s="29" t="s">
@@ -3102,7 +3112,7 @@
       </c>
       <c r="I40" s="31">
         <f>EV!I22</f>
-        <v>0</v>
+        <v>50625</v>
       </c>
       <c r="J40" s="31">
         <f>EV!J22</f>
@@ -3118,7 +3128,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
@@ -3136,12 +3146,12 @@
       <c r="O41" s="25"/>
       <c r="P41" s="25"/>
     </row>
-    <row r="42" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C43" s="14" t="s">
         <v>23</v>
       </c>
@@ -3167,11 +3177,11 @@
       </c>
       <c r="I43" s="11">
         <f t="shared" si="5"/>
-        <v>-35000</v>
+        <v>8125</v>
       </c>
       <c r="J43" s="11">
         <f t="shared" si="5"/>
-        <v>-35000</v>
+        <v>-42500</v>
       </c>
       <c r="K43" s="11" t="str">
         <f t="shared" si="5"/>
@@ -3194,7 +3204,7 @@
         <v xml:space="preserve"> - </v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C44" s="14" t="s">
         <v>22</v>
       </c>
@@ -3220,7 +3230,7 @@
       </c>
       <c r="I44" s="11">
         <f t="shared" si="6"/>
-        <v>-47000</v>
+        <v>3625</v>
       </c>
       <c r="J44" s="11">
         <f t="shared" si="6"/>
@@ -3247,7 +3257,7 @@
         <v xml:space="preserve"> - </v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C45" s="14" t="s">
         <v>24</v>
       </c>
@@ -3273,7 +3283,7 @@
       </c>
       <c r="I45" s="37">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.1911764705882353</v>
       </c>
       <c r="J45" s="37">
         <f t="shared" si="7"/>
@@ -3300,7 +3310,7 @@
         <v xml:space="preserve"> - </v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C46" s="14" t="s">
         <v>25</v>
       </c>
@@ -3326,7 +3336,7 @@
       </c>
       <c r="I46" s="37">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.0771276595744681</v>
       </c>
       <c r="J46" s="37">
         <f t="shared" si="8"/>
@@ -3353,7 +3363,7 @@
         <v xml:space="preserve"> - </v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C47" s="14" t="s">
         <v>27</v>
       </c>
@@ -3377,9 +3387,9 @@
         <f t="shared" si="9"/>
         <v>52499.999999999993</v>
       </c>
-      <c r="I47" s="38" t="e">
+      <c r="I47" s="38">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>56666.666666666664</v>
       </c>
       <c r="J47" s="38" t="e">
         <f t="shared" si="9"/>
@@ -3438,7 +3448,7 @@
     <oddFooter>&amp;L&amp;8&amp;K01+049https://www.vertex42.com/ExcelTemplates/earned-value-management.html&amp;R&amp;8&amp;K01+049EVM Template © 2012 Vertex42 LLC</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="D35:G35" formulaRange="1"/>
+    <ignoredError sqref="D35:K35" formulaRange="1"/>
     <ignoredError sqref="G47" evalError="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
@@ -3454,24 +3464,24 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" customWidth="1"/>
-    <col min="4" max="15" width="8.6640625" customWidth="1"/>
-    <col min="17" max="17" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" customWidth="1"/>
+    <col min="4" max="15" width="8.7109375" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3480,7 +3490,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>46</v>
       </c>
@@ -3494,7 +3504,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>38</v>
       </c>
@@ -3502,7 +3512,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>39</v>
       </c>
@@ -3512,7 +3522,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="7" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
@@ -3524,7 +3534,7 @@
       <c r="G7" s="2"/>
       <c r="O7" s="19"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="60" t="s">
         <v>2</v>
       </c>
@@ -3571,7 +3581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <f>IF(ISBLANK(Report!A22)," - ",Report!A22)</f>
         <v>1</v>
@@ -3599,7 +3609,9 @@
       <c r="H9" s="35">
         <v>1</v>
       </c>
-      <c r="I9" s="35"/>
+      <c r="I9" s="35">
+        <v>1</v>
+      </c>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
@@ -3607,7 +3619,7 @@
       <c r="N9" s="35"/>
       <c r="O9" s="35"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <f>IF(ISBLANK(Report!A23)," - ",Report!A23)</f>
         <v>2</v>
@@ -3633,7 +3645,9 @@
       <c r="H10" s="35">
         <v>1</v>
       </c>
-      <c r="I10" s="35"/>
+      <c r="I10" s="35">
+        <v>1</v>
+      </c>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
       <c r="L10" s="35"/>
@@ -3641,7 +3655,7 @@
       <c r="N10" s="35"/>
       <c r="O10" s="35"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <f>IF(ISBLANK(Report!A24)," - ",Report!A24)</f>
         <v>3</v>
@@ -3665,7 +3679,9 @@
       <c r="H11" s="35">
         <v>1</v>
       </c>
-      <c r="I11" s="35"/>
+      <c r="I11" s="35">
+        <v>1</v>
+      </c>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
       <c r="L11" s="35"/>
@@ -3673,7 +3689,7 @@
       <c r="N11" s="35"/>
       <c r="O11" s="35"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <f>IF(ISBLANK(Report!A25)," - ",Report!A25)</f>
         <v>4</v>
@@ -3695,7 +3711,9 @@
       <c r="H12" s="35">
         <v>1</v>
       </c>
-      <c r="I12" s="35"/>
+      <c r="I12" s="35">
+        <v>1</v>
+      </c>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
       <c r="L12" s="35"/>
@@ -3703,7 +3721,7 @@
       <c r="N12" s="35"/>
       <c r="O12" s="35"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <f>IF(ISBLANK(Report!A26)," - ",Report!A26)</f>
         <v>5</v>
@@ -3723,7 +3741,9 @@
       <c r="H13" s="35">
         <v>1</v>
       </c>
-      <c r="I13" s="35"/>
+      <c r="I13" s="35">
+        <v>1</v>
+      </c>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
       <c r="L13" s="35"/>
@@ -3731,7 +3751,7 @@
       <c r="N13" s="35"/>
       <c r="O13" s="35"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <f>IF(ISBLANK(Report!A27)," - ",Report!A27)</f>
         <v>6</v>
@@ -3749,7 +3769,9 @@
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
+      <c r="I14" s="35">
+        <v>0.75</v>
+      </c>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
       <c r="L14" s="35"/>
@@ -3757,7 +3779,7 @@
       <c r="N14" s="35"/>
       <c r="O14" s="35"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <f>IF(ISBLANK(Report!A28)," - ",Report!A28)</f>
         <v>7</v>
@@ -3783,7 +3805,7 @@
       <c r="N15" s="35"/>
       <c r="O15" s="35"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <f>IF(ISBLANK(Report!A29)," - ",Report!A29)</f>
         <v>8</v>
@@ -3809,7 +3831,7 @@
       <c r="N16" s="35"/>
       <c r="O16" s="35"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="str">
         <f>IF(ISBLANK(Report!A30)," - ",Report!A30)</f>
         <v xml:space="preserve"> - </v>
@@ -3835,7 +3857,7 @@
       <c r="N17" s="35"/>
       <c r="O17" s="35"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="str">
         <f>IF(ISBLANK(Report!A31)," - ",Report!A31)</f>
         <v xml:space="preserve"> - </v>
@@ -3861,7 +3883,7 @@
       <c r="N18" s="35"/>
       <c r="O18" s="35"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="str">
         <f>IF(ISBLANK(Report!A32)," - ",Report!A32)</f>
         <v xml:space="preserve"> - </v>
@@ -3887,7 +3909,7 @@
       <c r="N19" s="35"/>
       <c r="O19" s="35"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="str">
         <f>IF(ISBLANK(Report!A33)," - ",Report!A33)</f>
         <v xml:space="preserve"> - </v>
@@ -3913,7 +3935,7 @@
       <c r="N20" s="35"/>
       <c r="O20" s="35"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>28</v>
       </c>
@@ -3932,7 +3954,7 @@
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C22" s="8" t="s">
         <v>18</v>
       </c>
@@ -3958,7 +3980,7 @@
       </c>
       <c r="I22" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50625</v>
       </c>
       <c r="J22" s="22">
         <f t="shared" si="0"/>
@@ -4005,24 +4027,24 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24:K24"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" customWidth="1"/>
-    <col min="4" max="15" width="8.6640625" customWidth="1"/>
-    <col min="17" max="17" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" customWidth="1"/>
+    <col min="4" max="15" width="8.7109375" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4031,7 +4053,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>49</v>
       </c>
@@ -4045,7 +4067,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>38</v>
       </c>
@@ -4053,7 +4075,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>47</v>
       </c>
@@ -4063,7 +4085,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="7" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>42</v>
       </c>
@@ -4075,7 +4097,7 @@
       <c r="G7" s="2"/>
       <c r="O7" s="19"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="60" t="s">
         <v>2</v>
       </c>
@@ -4120,7 +4142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <f>IF(ISBLANK(Report!A22)," - ",Report!A22)</f>
         <v>1</v>
@@ -4144,7 +4166,7 @@
       <c r="N9" s="34"/>
       <c r="O9" s="34"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <f>IF(ISBLANK(Report!A23)," - ",Report!A23)</f>
         <v>2</v>
@@ -4168,7 +4190,7 @@
       <c r="N10" s="31"/>
       <c r="O10" s="31"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <f>IF(ISBLANK(Report!A24)," - ",Report!A24)</f>
         <v>3</v>
@@ -4192,7 +4214,7 @@
       <c r="N11" s="31"/>
       <c r="O11" s="31"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <f>IF(ISBLANK(Report!A25)," - ",Report!A25)</f>
         <v>4</v>
@@ -4216,7 +4238,7 @@
       <c r="N12" s="31"/>
       <c r="O12" s="31"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <f>IF(ISBLANK(Report!A26)," - ",Report!A26)</f>
         <v>5</v>
@@ -4240,7 +4262,7 @@
       <c r="N13" s="31"/>
       <c r="O13" s="31"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <f>IF(ISBLANK(Report!A27)," - ",Report!A27)</f>
         <v>6</v>
@@ -4254,7 +4276,9 @@
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
+      <c r="I14" s="31">
+        <v>7500</v>
+      </c>
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
@@ -4262,7 +4286,7 @@
       <c r="N14" s="31"/>
       <c r="O14" s="31"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <f>IF(ISBLANK(Report!A28)," - ",Report!A28)</f>
         <v>7</v>
@@ -4284,7 +4308,7 @@
       <c r="N15" s="31"/>
       <c r="O15" s="31"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <f>IF(ISBLANK(Report!A29)," - ",Report!A29)</f>
         <v>8</v>
@@ -4306,7 +4330,7 @@
       <c r="N16" s="31"/>
       <c r="O16" s="31"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="str">
         <f>IF(ISBLANK(Report!A30)," - ",Report!A30)</f>
         <v xml:space="preserve"> - </v>
@@ -4328,7 +4352,7 @@
       <c r="N17" s="31"/>
       <c r="O17" s="31"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="str">
         <f>IF(ISBLANK(Report!A31)," - ",Report!A31)</f>
         <v xml:space="preserve"> - </v>
@@ -4350,7 +4374,7 @@
       <c r="N18" s="31"/>
       <c r="O18" s="31"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="str">
         <f>IF(ISBLANK(Report!A32)," - ",Report!A32)</f>
         <v xml:space="preserve"> - </v>
@@ -4372,7 +4396,7 @@
       <c r="N19" s="31"/>
       <c r="O19" s="31"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="str">
         <f>IF(ISBLANK(Report!A33)," - ",Report!A33)</f>
         <v xml:space="preserve"> - </v>
@@ -4394,7 +4418,7 @@
       <c r="N20" s="31"/>
       <c r="O20" s="31"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>28</v>
       </c>
@@ -4413,7 +4437,7 @@
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C22" s="14" t="s">
         <v>45</v>
       </c>
@@ -4439,7 +4463,7 @@
       </c>
       <c r="I22" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="J22" s="22">
         <f t="shared" si="0"/>
@@ -4466,7 +4490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C24" s="8" t="s">
         <v>19</v>
       </c>
@@ -4492,15 +4516,15 @@
       </c>
       <c r="I24" s="36">
         <f>SUM($D22:I22)</f>
-        <v>35000</v>
+        <v>42500</v>
       </c>
       <c r="J24" s="36">
         <f>SUM($D22:J22)</f>
-        <v>35000</v>
+        <v>42500</v>
       </c>
       <c r="K24" s="36">
         <f>SUM($D22:K22)</f>
-        <v>35000</v>
+        <v>42500</v>
       </c>
       <c r="L24" s="36"/>
       <c r="M24" s="36"/>
@@ -4525,15 +4549,15 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" customWidth="1"/>
-    <col min="2" max="2" width="78.5546875" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="78.5703125" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>55</v>
       </c>
@@ -4541,151 +4565,151 @@
       <c r="C1" s="39"/>
       <c r="D1" s="30"/>
     </row>
-    <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="40"/>
       <c r="B2" s="41"/>
       <c r="C2" s="40"/>
     </row>
-    <row r="3" spans="1:4" s="44" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="44" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="42"/>
       <c r="B3" s="43" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="42"/>
     </row>
-    <row r="4" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="42"/>
       <c r="B4" s="45" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="42"/>
     </row>
-    <row r="5" spans="1:4" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="42"/>
       <c r="B5" s="46"/>
       <c r="C5" s="42"/>
     </row>
-    <row r="6" spans="1:4" s="44" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="44" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="42"/>
       <c r="B6" s="47" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="42"/>
     </row>
-    <row r="7" spans="1:4" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="44" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="48"/>
       <c r="B7" s="46"/>
       <c r="C7" s="49"/>
     </row>
-    <row r="8" spans="1:4" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="50"/>
       <c r="B8" s="46" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="42"/>
     </row>
-    <row r="9" spans="1:4" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="50"/>
       <c r="B9" s="46"/>
       <c r="C9" s="42"/>
     </row>
-    <row r="10" spans="1:4" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="50"/>
       <c r="B10" s="46" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="42"/>
     </row>
-    <row r="11" spans="1:4" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="50"/>
       <c r="B11" s="46"/>
       <c r="C11" s="42"/>
     </row>
-    <row r="12" spans="1:4" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="50"/>
       <c r="B12" s="46" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="42"/>
     </row>
-    <row r="13" spans="1:4" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="50"/>
       <c r="B13" s="46"/>
       <c r="C13" s="42"/>
     </row>
-    <row r="14" spans="1:4" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="50"/>
       <c r="B14" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C14" s="42"/>
     </row>
-    <row r="15" spans="1:4" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="50"/>
       <c r="B15" s="46"/>
       <c r="C15" s="42"/>
     </row>
-    <row r="16" spans="1:4" s="44" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" s="44" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="50"/>
       <c r="B16" s="65" t="s">
         <v>59</v>
       </c>
       <c r="C16" s="42"/>
     </row>
-    <row r="17" spans="1:3" s="44" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" s="44" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="50"/>
       <c r="B17" s="51"/>
       <c r="C17" s="42"/>
     </row>
-    <row r="18" spans="1:3" s="44" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="44" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="50"/>
       <c r="B18" s="51"/>
       <c r="C18" s="42"/>
     </row>
-    <row r="19" spans="1:3" s="44" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" s="44" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="50"/>
       <c r="B19" s="52"/>
       <c r="C19" s="42"/>
     </row>
-    <row r="20" spans="1:3" s="44" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
       <c r="B20" s="52"/>
       <c r="C20" s="49"/>
     </row>
-    <row r="21" spans="1:3" s="44" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" s="44" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="42"/>
       <c r="B21" s="53"/>
       <c r="C21" s="42"/>
     </row>
-    <row r="22" spans="1:3" s="44" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="44" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="42"/>
       <c r="B22" s="53"/>
       <c r="C22" s="42"/>
     </row>
-    <row r="23" spans="1:3" s="44" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="44" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
       <c r="B23" s="55"/>
     </row>
-    <row r="24" spans="1:3" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:3" s="44" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" s="44" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:3" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
       <c r="B25" s="57"/>
     </row>
-    <row r="26" spans="1:3" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:3" s="44" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" s="44" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:3" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
       <c r="B27" s="57"/>
     </row>
-    <row r="28" spans="1:3" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:3" s="44" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="44" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:3" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
       <c r="B29" s="58"/>
     </row>
-    <row r="30" spans="1:3" s="44" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="44" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B30" s="59"/>
     </row>
-    <row r="31" spans="1:3" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:3" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:3" s="44" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:3" s="44" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
